--- a/src/main/resources/template/invest_template.xlsx
+++ b/src/main/resources/template/invest_template.xlsx
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>交易时间</t>
   </si>
@@ -113,6 +113,73 @@
   </si>
   <si>
     <t>应兑付金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20180528123812</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>身份证</t>
+  </si>
+  <si>
+    <t>22312423423545</t>
+  </si>
+  <si>
+    <t>13111111116</t>
+  </si>
+  <si>
+    <t>1234325345</t>
+  </si>
+  <si>
+    <t>北京支行</t>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转账类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省</t>
+  </si>
+  <si>
+    <t>市</t>
+  </si>
+  <si>
+    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -120,7 +187,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +226,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -180,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
@@ -192,6 +273,8 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -472,15 +555,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.6640625" style="5"/>
+    <col min="1" max="1" width="8.6640625" style="5"/>
+    <col min="2" max="2" width="8.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="5"/>
     <col min="4" max="4" width="15.58203125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.08203125" style="5" bestFit="1" customWidth="1"/>
@@ -492,7 +577,7 @@
     <col min="13" max="16384" width="8.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -528,10 +613,77 @@
       </c>
       <c r="L1" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+      <formula1>"身份证,护照,港澳通行证,台湾通行证,军官证,统一社会信用代码"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
